--- a/combined_listings.xlsx
+++ b/combined_listings.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>spese condominiali</t>
+          <t>spese condominiali / mese</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -786,10 +786,8 @@
           <t>Esposizione esterna, Porta blindata</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD2" t="n">
+        <v>0</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -931,10 +929,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD3" t="n">
+        <v>20</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -1084,10 +1080,8 @@
           <t>Armadio a muro, Esposizione interna, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD4" t="n">
+        <v>20</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1237,10 +1231,8 @@
           <t>Esposizione esterna, Fibra ottica, Impianto di allarme, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD5" t="n">
+        <v>20</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1390,10 +1382,8 @@
           <t>Esposizione esterna, Fibra ottica, Impianto di allarme, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD6" t="n">
+        <v>20</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1539,10 +1529,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / PVC, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD7" t="n">
+        <v>0</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1692,10 +1680,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>€ 35/mese</t>
-        </is>
+      <c r="AD8" t="n">
+        <v>35</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1845,10 +1831,8 @@
           <t>Esposizione interna, Fibra ottica, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>€ 45/mese</t>
-        </is>
+      <c r="AD9" t="n">
+        <v>45</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1986,10 +1970,8 @@
           <t>Cucina</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>€ 40/mese</t>
-        </is>
+      <c r="AD10" t="n">
+        <v>40</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2282,10 +2264,8 @@
           <t>Armadio a muro, Esposizione doppia, Infissi esterni in vetro / PVC, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>€ 38/mese</t>
-        </is>
+      <c r="AD12" t="n">
+        <v>38</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2433,10 +2413,8 @@
           <t>Esposizione esterna</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>€ 59/mese</t>
-        </is>
+      <c r="AD13" t="n">
+        <v>59</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2582,10 +2560,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Impianto tv centralizzato, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>€ 70/mese</t>
-        </is>
+      <c r="AD14" t="n">
+        <v>70</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -2739,10 +2715,8 @@
           <t>Armadio a muro, Esposizione interna, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD15" t="n">
+        <v>20</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -2892,10 +2866,8 @@
           <t>Armadio a muro, Fibra ottica, Impianto di allarme, Infissi esterni in doppio vetro / metallo, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD16" t="n">
+        <v>30</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3041,10 +3013,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / legno, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD17" t="n">
+        <v>50</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3194,10 +3164,8 @@
           <t>Armadio a muro, Fibra ottica, Impianto di allarme, Infissi esterni in doppio vetro / metallo, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD18" t="n">
+        <v>30</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3353,10 +3321,8 @@
           <t>Esposizione esterna, Infissi esterni in doppio vetro / PVC, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>€ 10/mese</t>
-        </is>
+      <c r="AD19" t="n">
+        <v>10</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -3506,10 +3472,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD20" t="n">
+        <v>30</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3555,7 +3519,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>23775000</v>
+        <v>237750</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -3816,10 +3780,8 @@
           <t>Armadio a muro, Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / metallo, Porta blindata, Impianto tv con parabola satellitare</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD22" t="n">
+        <v>30</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4120,10 +4082,8 @@
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD24" t="n">
+        <v>50</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -4277,10 +4237,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD25" t="n">
+        <v>0</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -4430,10 +4388,8 @@
           <t>Esposizione doppia, Infissi esterni in doppio vetro / PVC</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>€ 10/mese</t>
-        </is>
+      <c r="AD26" t="n">
+        <v>10</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -4583,10 +4539,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in doppio vetro / metallo, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>€ 100/mese</t>
-        </is>
+      <c r="AD27" t="n">
+        <v>100</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -4738,10 +4692,8 @@
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>€ 35/mese</t>
-        </is>
+      <c r="AD28" t="n">
+        <v>35</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
@@ -4887,10 +4839,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD29" t="n">
+        <v>50</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -5044,10 +4994,8 @@
           <t>Esposizione doppia, Infissi esterni in doppio vetro / legno, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>€ 10/mese</t>
-        </is>
+      <c r="AD30" t="n">
+        <v>10</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -5193,10 +5141,8 @@
           <t>Esposizione esterna, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>€ 23/mese</t>
-        </is>
+      <c r="AD31" t="n">
+        <v>23</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -5342,10 +5288,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / PVC, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD32" t="n">
+        <v>0</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -5495,10 +5439,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv singolo, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>€ 45/mese</t>
-        </is>
+      <c r="AD33" t="n">
+        <v>45</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -5644,10 +5586,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD34" t="n">
+        <v>20</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -5797,10 +5737,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>€ 55/mese</t>
-        </is>
+      <c r="AD35" t="n">
+        <v>55</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -5946,10 +5884,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / PVC</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>€ 40/mese</t>
-        </is>
+      <c r="AD36" t="n">
+        <v>40</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -6105,10 +6041,8 @@
           <t>Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>€ 15/mese</t>
-        </is>
+      <c r="AD37" t="n">
+        <v>15</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -6258,10 +6192,8 @@
           <t>Esposizione doppia, Infissi esterni in doppio vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD38" t="n">
+        <v>0</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -6562,10 +6494,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD40" t="n">
+        <v>50</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -6834,10 +6764,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / PVC, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>€ 10/mese</t>
-        </is>
+      <c r="AD42" t="n">
+        <v>10</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -6987,10 +6915,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / legno, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD43" t="n">
+        <v>30</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -7136,10 +7062,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD44" t="n">
+        <v>30</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -7181,7 +7105,7 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>23625000</v>
+        <v>236250</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -7432,10 +7356,8 @@
           <t>Esposizione esterna, Impianto di allarme, Infissi esterni in vetro / metallo, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD46" t="n">
+        <v>0</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -7593,10 +7515,8 @@
           <t>Esposizione interna, Fibra ottica, Infissi esterni in doppio vetro / metallo, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD47" t="n">
+        <v>30</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -7746,10 +7666,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD48" t="n">
+        <v>50</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -7895,10 +7813,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>€ 5/mese</t>
-        </is>
+      <c r="AD49" t="n">
+        <v>5</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -8028,10 +7944,8 @@
           <t>Cucina, Infissi esterni in doppio vetro / metallo, Esposizione nord</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD50" t="n">
+        <v>30</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -8181,10 +8095,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>€ 45/mese</t>
-        </is>
+      <c r="AD51" t="n">
+        <v>45</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -8457,10 +8369,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>€ 31/mese</t>
-        </is>
+      <c r="AD53" t="n">
+        <v>31</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -8610,10 +8520,8 @@
           <t>Esposizione doppia, Infissi esterni in doppio vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD54" t="n">
+        <v>0</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -8769,10 +8677,8 @@
           <t>Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD55" t="n">
+        <v>50</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -8918,10 +8824,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / legno, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>€ 10/mese</t>
-        </is>
+      <c r="AD56" t="n">
+        <v>10</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -9063,10 +8967,8 @@
           <t>Esposizione esterna, Fibra ottica, Porta blindata, Cancello elettrico, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD57" t="n">
+        <v>50</v>
       </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
@@ -9204,10 +9106,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in vetro / metallo, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>€ 30/mese</t>
-        </is>
+      <c r="AD58" t="n">
+        <v>30</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -9357,10 +9257,8 @@
           <t>Esposizione esterna, Fibra ottica, Infissi esterni in vetro / PVC, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>€ 37/mese</t>
-        </is>
+      <c r="AD59" t="n">
+        <v>37</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -9506,10 +9404,8 @@
           <t>Esposizione doppia, Infissi esterni in vetro / PVC</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>€ 40/mese</t>
-        </is>
+      <c r="AD60" t="n">
+        <v>40</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -9659,10 +9555,8 @@
           <t>Armadio a muro, Esposizione doppia, Impianto di allarme, Infissi esterni in doppio vetro / legno, Porta blindata, Cancello elettrico, Impianto tv con parabola satellitare, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>€ 48/mese</t>
-        </is>
+      <c r="AD61" t="n">
+        <v>48</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -9822,10 +9716,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / legno, Porta blindata, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD62" t="n">
+        <v>50</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -9975,10 +9867,8 @@
           <t>Esposizione esterna, Infissi esterni in doppio vetro / PVC, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>€ 85/mese</t>
-        </is>
+      <c r="AD63" t="n">
+        <v>85</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -10020,7 +9910,7 @@
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>27375000</v>
+        <v>273750</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -10173,7 +10063,7 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>23775000</v>
+        <v>237750</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -10430,10 +10320,8 @@
           <t>Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Cancello elettrico, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>€ 25/mese</t>
-        </is>
+      <c r="AD66" t="n">
+        <v>25</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -10583,10 +10471,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv singolo, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>€ 70/mese</t>
-        </is>
+      <c r="AD67" t="n">
+        <v>70</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -10865,10 +10751,8 @@
           <t>Cucina, Infissi esterni in vetro / metallo, Esposizione sud</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>€ 40/mese</t>
-        </is>
+      <c r="AD69" t="n">
+        <v>40</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -10910,7 +10794,7 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>17650000</v>
+        <v>176500</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -11167,10 +11051,8 @@
           <t>Esposizione esterna, Infissi esterni in vetro / metallo, Porta blindata, Cancello elettrico, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>€ 69/mese</t>
-        </is>
+      <c r="AD71" t="n">
+        <v>69</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -11320,10 +11202,8 @@
           <t>Armadio a muro, Esposizione interna, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Impianto tv singolo</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD72" t="n">
+        <v>0</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -11361,7 +11241,7 @@
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>23625000</v>
+        <v>236250</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -11622,10 +11502,8 @@
           <t>Esposizione interna, Infissi esterni in vetro / PVC, Impianto tv centralizzato</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>€ 20/mese</t>
-        </is>
+      <c r="AD74" t="n">
+        <v>20</v>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
@@ -11777,10 +11655,8 @@
           <t>Porta blindata</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>Nessuna spesa condominiale</t>
-        </is>
+      <c r="AD75" t="n">
+        <v>0</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -11930,10 +11806,8 @@
           <t>Armadio a muro, Esposizione doppia, Fibra ottica, Infissi esterni in doppio vetro / PVC, Porta blindata, Impianto tv centralizzato, VideoCitofono</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>€ 50/mese</t>
-        </is>
+      <c r="AD76" t="n">
+        <v>50</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -12013,7 +11887,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -12034,13 +11912,11 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>balconeportineria</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>€50/mesel'immobile ha portineria, ascensore</t>
-        </is>
+          <t>balcone, portineria</t>
+        </is>
+      </c>
+      <c r="AD77" t="n">
+        <v>50</v>
       </c>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr">
@@ -12121,7 +11997,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -12216,7 +12096,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -12240,10 +12124,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
-        <is>
-          <t>€20/mese</t>
-        </is>
+      <c r="AD79" t="n">
+        <v>20</v>
       </c>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr">
@@ -12323,7 +12205,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -12347,10 +12233,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
-        <is>
-          <t>€20/mese</t>
-        </is>
+      <c r="AD80" t="n">
+        <v>20</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -12442,7 +12326,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -12537,7 +12425,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -12561,10 +12453,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr">
-        <is>
-          <t>€82/mesel'immobile ha ascensore</t>
-        </is>
+      <c r="AD82" t="n">
+        <v>82</v>
       </c>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr">
@@ -12644,7 +12534,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -12668,10 +12562,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
-        <is>
-          <t>€30/mese</t>
-        </is>
+      <c r="AD83" t="n">
+        <v>30</v>
       </c>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr">
@@ -12751,7 +12643,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -12772,13 +12668,11 @@
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>balconeterrazzo</t>
-        </is>
-      </c>
-      <c r="AD84" t="inlineStr">
-        <is>
-          <t>€10/mese</t>
-        </is>
+          <t>balcone, terrazzo</t>
+        </is>
+      </c>
+      <c r="AD84" t="n">
+        <v>10</v>
       </c>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr">
@@ -12858,7 +12752,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -12879,7 +12777,7 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>balconeterrazzo</t>
+          <t>balcone, terrazzo</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr"/>
@@ -12961,7 +12859,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
@@ -13060,7 +12962,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
@@ -13084,10 +12990,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>€15/mesel'immobile ha ascensore</t>
-        </is>
+      <c r="AD87" t="n">
+        <v>15</v>
       </c>
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr">
@@ -13167,7 +13071,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
@@ -13188,13 +13096,11 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>balconeportineria</t>
-        </is>
-      </c>
-      <c r="AD88" t="inlineStr">
-        <is>
-          <t>€100/mesel'immobile ha riscaldamento centralizzato, portineria, ascensore</t>
-        </is>
+          <t>balcone, portineria</t>
+        </is>
+      </c>
+      <c r="AD88" t="n">
+        <v>100</v>
       </c>
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr">
@@ -13278,7 +13184,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
@@ -13298,10 +13208,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>€55/mese</t>
-        </is>
+      <c r="AD89" t="n">
+        <v>55</v>
       </c>
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
@@ -13377,7 +13285,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
@@ -13476,7 +13388,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
@@ -13493,7 +13409,7 @@
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>balconeterrazzo</t>
+          <t>balcone, terrazzo</t>
         </is>
       </c>
       <c r="AD91" t="inlineStr"/>
@@ -13571,7 +13487,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
@@ -13595,10 +13515,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t>€40/mesel'immobile ha ascensore</t>
-        </is>
+      <c r="AD92" t="n">
+        <v>40</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -13690,7 +13608,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
@@ -13711,13 +13633,11 @@
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>balconeterrazzo</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t>€35/mese</t>
-        </is>
+          <t>balcone, terrazzo</t>
+        </is>
+      </c>
+      <c r="AD93" t="n">
+        <v>35</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -13805,7 +13725,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
@@ -13904,7 +13828,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
@@ -13928,10 +13856,8 @@
           <t>balcone</t>
         </is>
       </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t>€55/mese</t>
-        </is>
+      <c r="AD95" t="n">
+        <v>55</v>
       </c>
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr">
@@ -14011,7 +13937,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
@@ -14032,13 +13962,11 @@
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>balconeterrazzo</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>€5/mese</t>
-        </is>
+          <t>balcone, terrazzo</t>
+        </is>
+      </c>
+      <c r="AD96" t="n">
+        <v>5</v>
       </c>
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
@@ -14114,7 +14042,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
